--- a/years/1975.xlsx
+++ b/years/1975.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21465" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="TW27syhB" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -256,8 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,16 +807,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
@@ -829,14 +827,12 @@
     <xf numFmtId="3" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -845,7 +841,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,6 +891,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -971,6 +974,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1005,6 +1009,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1180,101 +1185,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="8" width="7.85546875" customWidth="1"/>
-    <col min="10" max="12" width="8.7109375" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickTop="1"/>
-    <row r="7" spans="1:12">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1284,10 +1276,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1298,43 +1288,41 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1344,10 +1332,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1358,2339 +1344,2200 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>40347719</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>20744730</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>19602989</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6">
+      <c r="E14" s="5">
         <v>16869068</v>
       </c>
-      <c r="G14" s="6">
+      <c r="F14" s="5">
         <v>9004842</v>
       </c>
-      <c r="H14" s="6">
+      <c r="G14" s="5">
         <v>7864226</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="6">
+      <c r="H14" s="5">
         <v>23478651</v>
       </c>
-      <c r="K14" s="6">
+      <c r="I14" s="5">
         <v>11739888</v>
       </c>
-      <c r="L14" s="6">
+      <c r="J14" s="5">
         <v>11738763</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1240475</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>639034</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>601441</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7">
+      <c r="E15" s="6">
         <v>706186</v>
       </c>
-      <c r="G15" s="7">
+      <c r="F15" s="6">
         <v>370247</v>
       </c>
-      <c r="H15" s="7">
+      <c r="G15" s="6">
         <v>335939</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="7">
+      <c r="H15" s="6">
         <v>534289</v>
       </c>
-      <c r="K15" s="7">
+      <c r="I15" s="6">
         <v>268787</v>
       </c>
-      <c r="L15" s="7">
+      <c r="J15" s="6">
         <v>265502</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>346892</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>178152</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>168740</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="7">
+      <c r="E16" s="6">
         <v>100722</v>
       </c>
-      <c r="G16" s="7">
+      <c r="F16" s="6">
         <v>53511</v>
       </c>
-      <c r="H16" s="7">
+      <c r="G16" s="6">
         <v>47211</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="7">
+      <c r="H16" s="6">
         <v>246170</v>
       </c>
-      <c r="K16" s="7">
+      <c r="I16" s="6">
         <v>124641</v>
       </c>
-      <c r="L16" s="7">
+      <c r="J16" s="6">
         <v>121529</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>579171</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>291388</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>287783</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="7">
+      <c r="E17" s="6">
         <v>169494</v>
       </c>
-      <c r="G17" s="7">
+      <c r="F17" s="6">
         <v>88783</v>
       </c>
-      <c r="H17" s="7">
+      <c r="G17" s="6">
         <v>80711</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="7">
+      <c r="H17" s="6">
         <v>409677</v>
       </c>
-      <c r="K17" s="7">
+      <c r="I17" s="6">
         <v>202605</v>
       </c>
-      <c r="L17" s="7">
+      <c r="J17" s="6">
         <v>207072</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>330201</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>176676</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>153525</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="7">
+      <c r="E18" s="6">
         <v>92386</v>
       </c>
-      <c r="G18" s="7">
+      <c r="F18" s="6">
         <v>55427</v>
       </c>
-      <c r="H18" s="7">
+      <c r="G18" s="6">
         <v>36959</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="7">
+      <c r="H18" s="6">
         <v>237815</v>
       </c>
-      <c r="K18" s="7">
+      <c r="I18" s="6">
         <v>121249</v>
       </c>
-      <c r="L18" s="7">
+      <c r="J18" s="6">
         <v>116566</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>322806</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>165473</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>157333</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="7">
+      <c r="E19" s="6">
         <v>115480</v>
       </c>
-      <c r="G19" s="7">
+      <c r="F19" s="6">
         <v>61432</v>
       </c>
-      <c r="H19" s="7">
+      <c r="G19" s="6">
         <v>54048</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="7">
+      <c r="H19" s="6">
         <v>207326</v>
       </c>
-      <c r="K19" s="7">
+      <c r="I19" s="6">
         <v>104041</v>
       </c>
-      <c r="L19" s="7">
+      <c r="J19" s="6">
         <v>103285</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>2585293</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>1359373</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>1225920</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="7">
+      <c r="E20" s="6">
         <v>1997980</v>
       </c>
-      <c r="G20" s="7">
+      <c r="F20" s="6">
         <v>1071452</v>
       </c>
-      <c r="H20" s="7">
+      <c r="G20" s="6">
         <v>926528</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="7">
+      <c r="H20" s="6">
         <v>587313</v>
       </c>
-      <c r="K20" s="7">
+      <c r="I20" s="6">
         <v>287921</v>
       </c>
-      <c r="L20" s="7">
+      <c r="J20" s="6">
         <v>299392</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>669357</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>342365</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>326992</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7">
+      <c r="E21" s="6">
         <v>223089</v>
       </c>
-      <c r="G21" s="7">
+      <c r="F21" s="6">
         <v>118191</v>
       </c>
-      <c r="H21" s="7">
+      <c r="G21" s="6">
         <v>104898</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="7">
+      <c r="H21" s="6">
         <v>446268</v>
       </c>
-      <c r="K21" s="7">
+      <c r="I21" s="6">
         <v>224174</v>
       </c>
-      <c r="L21" s="7">
+      <c r="J21" s="6">
         <v>222094</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>228026</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>113829</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>114197</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="7">
+      <c r="E22" s="6">
         <v>42496</v>
       </c>
-      <c r="G22" s="7">
+      <c r="F22" s="6">
         <v>24122</v>
       </c>
-      <c r="H22" s="7">
+      <c r="G22" s="6">
         <v>18374</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="7">
+      <c r="H22" s="6">
         <v>185530</v>
       </c>
-      <c r="K22" s="7">
+      <c r="I22" s="6">
         <v>89707</v>
       </c>
-      <c r="L22" s="7">
+      <c r="J22" s="6">
         <v>95823</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>609869</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>309516</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>300353</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="7">
+      <c r="E23" s="6">
         <v>214505</v>
       </c>
-      <c r="G23" s="7">
+      <c r="F23" s="6">
         <v>111799</v>
       </c>
-      <c r="H23" s="7">
+      <c r="G23" s="6">
         <v>102706</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="7">
+      <c r="H23" s="6">
         <v>395364</v>
       </c>
-      <c r="K23" s="7">
+      <c r="I23" s="6">
         <v>197717</v>
       </c>
-      <c r="L23" s="7">
+      <c r="J23" s="6">
         <v>197647</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>789255</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>408133</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>381122</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7">
+      <c r="E24" s="6">
         <v>294827</v>
       </c>
-      <c r="G24" s="7">
+      <c r="F24" s="6">
         <v>158719</v>
       </c>
-      <c r="H24" s="7">
+      <c r="G24" s="6">
         <v>136108</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="7">
+      <c r="H24" s="6">
         <v>494428</v>
       </c>
-      <c r="K24" s="7">
+      <c r="I24" s="6">
         <v>249414</v>
       </c>
-      <c r="L24" s="7">
+      <c r="J24" s="6">
         <v>245014</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>137120</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>68686</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>68434</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7">
+      <c r="E25" s="6">
         <v>47219</v>
       </c>
-      <c r="G25" s="7">
+      <c r="F25" s="6">
         <v>25086</v>
       </c>
-      <c r="H25" s="7">
+      <c r="G25" s="6">
         <v>22133</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="7">
+      <c r="H25" s="6">
         <v>89901</v>
       </c>
-      <c r="K25" s="7">
+      <c r="I25" s="6">
         <v>43600</v>
       </c>
-      <c r="L25" s="7">
+      <c r="J25" s="6">
         <v>46301</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>210804</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>110954</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>99850</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="7">
+      <c r="E26" s="6">
         <v>45961</v>
       </c>
-      <c r="G26" s="7">
+      <c r="F26" s="6">
         <v>26735</v>
       </c>
-      <c r="H26" s="7">
+      <c r="G26" s="6">
         <v>19226</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="7">
+      <c r="H26" s="6">
         <v>164843</v>
       </c>
-      <c r="K26" s="7">
+      <c r="I26" s="6">
         <v>84219</v>
       </c>
-      <c r="L26" s="7">
+      <c r="J26" s="6">
         <v>80624</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>218305</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>115955</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>102350</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="7">
+      <c r="E27" s="6">
         <v>76702</v>
       </c>
-      <c r="G27" s="7">
+      <c r="F27" s="6">
         <v>43159</v>
       </c>
-      <c r="H27" s="7">
+      <c r="G27" s="6">
         <v>33543</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="7">
+      <c r="H27" s="6">
         <v>141603</v>
       </c>
-      <c r="K27" s="7">
+      <c r="I27" s="6">
         <v>72796</v>
       </c>
-      <c r="L27" s="7">
+      <c r="J27" s="6">
         <v>68807</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>428704</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>215800</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>212904</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="7">
+      <c r="E28" s="6">
         <v>96780</v>
       </c>
-      <c r="G28" s="7">
+      <c r="F28" s="6">
         <v>52879</v>
       </c>
-      <c r="H28" s="7">
+      <c r="G28" s="6">
         <v>43901</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="7">
+      <c r="H28" s="6">
         <v>331924</v>
       </c>
-      <c r="K28" s="7">
+      <c r="I28" s="6">
         <v>162921</v>
       </c>
-      <c r="L28" s="7">
+      <c r="J28" s="6">
         <v>169003</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>222896</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>112161</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>110735</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="7">
+      <c r="E29" s="6">
         <v>71071</v>
       </c>
-      <c r="G29" s="7">
+      <c r="F29" s="6">
         <v>37686</v>
       </c>
-      <c r="H29" s="7">
+      <c r="G29" s="6">
         <v>33385</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="7">
+      <c r="H29" s="6">
         <v>151825</v>
       </c>
-      <c r="K29" s="7">
+      <c r="I29" s="6">
         <v>74475</v>
       </c>
-      <c r="L29" s="7">
+      <c r="J29" s="6">
         <v>77350</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>961639</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>490506</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>471133</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="7">
+      <c r="E30" s="6">
         <v>507106</v>
       </c>
-      <c r="G30" s="7">
+      <c r="F30" s="6">
         <v>262091</v>
       </c>
-      <c r="H30" s="7">
+      <c r="G30" s="6">
         <v>245015</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="7">
+      <c r="H30" s="6">
         <v>454533</v>
       </c>
-      <c r="K30" s="7">
+      <c r="I30" s="6">
         <v>228415</v>
       </c>
-      <c r="L30" s="7">
+      <c r="J30" s="6">
         <v>226118</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>369385</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>193590</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>175795</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="7">
+      <c r="E31" s="6">
         <v>107825</v>
       </c>
-      <c r="G31" s="7">
+      <c r="F31" s="6">
         <v>60954</v>
       </c>
-      <c r="H31" s="7">
+      <c r="G31" s="6">
         <v>46871</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="7">
+      <c r="H31" s="6">
         <v>261560</v>
       </c>
-      <c r="K31" s="7">
+      <c r="I31" s="6">
         <v>132636</v>
       </c>
-      <c r="L31" s="7">
+      <c r="J31" s="6">
         <v>128924</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>265468</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>132240</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>133228</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="7">
+      <c r="E32" s="6">
         <v>62444</v>
       </c>
-      <c r="G32" s="7">
+      <c r="F32" s="6">
         <v>33992</v>
       </c>
-      <c r="H32" s="7">
+      <c r="G32" s="6">
         <v>28452</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="7">
+      <c r="H32" s="6">
         <v>203024</v>
       </c>
-      <c r="K32" s="7">
+      <c r="I32" s="6">
         <v>98248</v>
       </c>
-      <c r="L32" s="7">
+      <c r="J32" s="6">
         <v>104776</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>547580</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>274050</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>273530</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="7">
+      <c r="E33" s="6">
         <v>145969</v>
       </c>
-      <c r="G33" s="7">
+      <c r="F33" s="6">
         <v>76504</v>
       </c>
-      <c r="H33" s="7">
+      <c r="G33" s="6">
         <v>69465</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="7">
+      <c r="H33" s="6">
         <v>401611</v>
       </c>
-      <c r="K33" s="7">
+      <c r="I33" s="6">
         <v>197546</v>
       </c>
-      <c r="L33" s="7">
+      <c r="J33" s="6">
         <v>204065</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>560916</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>281186</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>279730</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="7">
+      <c r="E34" s="6">
         <v>171586</v>
       </c>
-      <c r="G34" s="7">
+      <c r="F34" s="6">
         <v>90562</v>
       </c>
-      <c r="H34" s="7">
+      <c r="G34" s="6">
         <v>81024</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="7">
+      <c r="H34" s="6">
         <v>389330</v>
       </c>
-      <c r="K34" s="7">
+      <c r="I34" s="6">
         <v>190624</v>
       </c>
-      <c r="L34" s="7">
+      <c r="J34" s="6">
         <v>198706</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>651233</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>343797</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>307436</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="7">
+      <c r="E35" s="6">
         <v>281960</v>
       </c>
-      <c r="G35" s="7">
+      <c r="F35" s="6">
         <v>155823</v>
       </c>
-      <c r="H35" s="7">
+      <c r="G35" s="6">
         <v>126137</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="7">
+      <c r="H35" s="6">
         <v>369273</v>
       </c>
-      <c r="K35" s="7">
+      <c r="I35" s="6">
         <v>187974</v>
       </c>
-      <c r="L35" s="7">
+      <c r="J35" s="6">
         <v>181299</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>340732</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>182944</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>157788</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="7">
+      <c r="E36" s="6">
         <v>135792</v>
       </c>
-      <c r="G36" s="7">
+      <c r="F36" s="6">
         <v>76883</v>
       </c>
-      <c r="H36" s="7">
+      <c r="G36" s="6">
         <v>58909</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="7">
+      <c r="H36" s="6">
         <v>204940</v>
       </c>
-      <c r="K36" s="7">
+      <c r="I36" s="6">
         <v>106061</v>
       </c>
-      <c r="L36" s="7">
+      <c r="J36" s="6">
         <v>98879</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>417924</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>216639</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>201285</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="7">
+      <c r="E37" s="6">
         <v>175675</v>
       </c>
-      <c r="G37" s="7">
+      <c r="F37" s="6">
         <v>94015</v>
       </c>
-      <c r="H37" s="7">
+      <c r="G37" s="6">
         <v>81660</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="7">
+      <c r="H37" s="6">
         <v>242249</v>
       </c>
-      <c r="K37" s="7">
+      <c r="I37" s="6">
         <v>122624</v>
       </c>
-      <c r="L37" s="7">
+      <c r="J37" s="6">
         <v>119625</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>283683</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>144959</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>138724</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="7">
+      <c r="E38" s="6">
         <v>85184</v>
       </c>
-      <c r="G38" s="7">
+      <c r="F38" s="6">
         <v>48388</v>
       </c>
-      <c r="H38" s="7">
+      <c r="G38" s="6">
         <v>36796</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="7">
+      <c r="H38" s="6">
         <v>198499</v>
       </c>
-      <c r="K38" s="7">
+      <c r="I38" s="6">
         <v>96571</v>
       </c>
-      <c r="L38" s="7">
+      <c r="J38" s="6">
         <v>101928</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>746666</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>389557</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>357109</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="7">
+      <c r="E39" s="6">
         <v>241467</v>
       </c>
-      <c r="G39" s="7">
+      <c r="F39" s="6">
         <v>134620</v>
       </c>
-      <c r="H39" s="7">
+      <c r="G39" s="6">
         <v>106847</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="7">
+      <c r="H39" s="6">
         <v>505199</v>
       </c>
-      <c r="K39" s="7">
+      <c r="I39" s="6">
         <v>254937</v>
       </c>
-      <c r="L39" s="7">
+      <c r="J39" s="6">
         <v>250262</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>495097</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>254173</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>240924</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="7">
+      <c r="E40" s="6">
         <v>292110</v>
       </c>
-      <c r="G40" s="7">
+      <c r="F40" s="6">
         <v>153784</v>
       </c>
-      <c r="H40" s="7">
+      <c r="G40" s="6">
         <v>138326</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="7">
+      <c r="H40" s="6">
         <v>202987</v>
       </c>
-      <c r="K40" s="7">
+      <c r="I40" s="6">
         <v>100389</v>
       </c>
-      <c r="L40" s="7">
+      <c r="J40" s="6">
         <v>102598</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>715939</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>369748</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>346191</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="7">
+      <c r="E41" s="6">
         <v>427017</v>
       </c>
-      <c r="G41" s="7">
+      <c r="F41" s="6">
         <v>225234</v>
       </c>
-      <c r="H41" s="7">
+      <c r="G41" s="6">
         <v>201783</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="7">
+      <c r="H41" s="6">
         <v>288922</v>
       </c>
-      <c r="K41" s="7">
+      <c r="I41" s="6">
         <v>144514</v>
       </c>
-      <c r="L41" s="7">
+      <c r="J41" s="6">
         <v>144408</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>463587</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>228967</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>234620</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="7">
+      <c r="E42" s="6">
         <v>108838</v>
       </c>
-      <c r="G42" s="7">
+      <c r="F42" s="6">
         <v>58066</v>
       </c>
-      <c r="H42" s="7">
+      <c r="G42" s="6">
         <v>50772</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="7">
+      <c r="H42" s="6">
         <v>354749</v>
       </c>
-      <c r="K42" s="7">
+      <c r="I42" s="6">
         <v>170901</v>
       </c>
-      <c r="L42" s="7">
+      <c r="J42" s="6">
         <v>183848</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>293673</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>142353</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>151320</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="7">
+      <c r="E43" s="6">
         <v>46519</v>
       </c>
-      <c r="G43" s="7">
+      <c r="F43" s="6">
         <v>25937</v>
       </c>
-      <c r="H43" s="7">
+      <c r="G43" s="6">
         <v>20582</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="7">
+      <c r="H43" s="6">
         <v>247154</v>
       </c>
-      <c r="K43" s="7">
+      <c r="I43" s="6">
         <v>116416</v>
       </c>
-      <c r="L43" s="7">
+      <c r="J43" s="6">
         <v>130738</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>126036</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>68264</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>57772</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="7">
+      <c r="E44" s="6">
         <v>30332</v>
       </c>
-      <c r="G44" s="7">
+      <c r="F44" s="6">
         <v>17940</v>
       </c>
-      <c r="H44" s="7">
+      <c r="G44" s="6">
         <v>12392</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="7">
+      <c r="H44" s="6">
         <v>95704</v>
       </c>
-      <c r="K44" s="7">
+      <c r="I44" s="6">
         <v>50324</v>
       </c>
-      <c r="L44" s="7">
+      <c r="J44" s="6">
         <v>45380</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>744113</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>390908</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>353205</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="7">
+      <c r="E45" s="6">
         <v>311307</v>
       </c>
-      <c r="G45" s="7">
+      <c r="F45" s="6">
         <v>167214</v>
       </c>
-      <c r="H45" s="7">
+      <c r="G45" s="6">
         <v>144093</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="7">
+      <c r="H45" s="6">
         <v>432806</v>
       </c>
-      <c r="K45" s="7">
+      <c r="I45" s="6">
         <v>223694</v>
       </c>
-      <c r="L45" s="7">
+      <c r="J45" s="6">
         <v>209112</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>322685</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>167062</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>155623</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="7">
+      <c r="E46" s="6">
         <v>132240</v>
       </c>
-      <c r="G46" s="7">
+      <c r="F46" s="6">
         <v>73016</v>
       </c>
-      <c r="H46" s="7">
+      <c r="G46" s="6">
         <v>59224</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="7">
+      <c r="H46" s="6">
         <v>190445</v>
       </c>
-      <c r="K46" s="7">
+      <c r="I46" s="6">
         <v>94046</v>
       </c>
-      <c r="L46" s="7">
+      <c r="J46" s="6">
         <v>96399</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>714817</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>369269</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>345548</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="7">
+      <c r="E47" s="6">
         <v>332900</v>
       </c>
-      <c r="G47" s="7">
+      <c r="F47" s="6">
         <v>176705</v>
       </c>
-      <c r="H47" s="7">
+      <c r="G47" s="6">
         <v>156195</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="7">
+      <c r="H47" s="6">
         <v>381917</v>
       </c>
-      <c r="K47" s="7">
+      <c r="I47" s="6">
         <v>192564</v>
       </c>
-      <c r="L47" s="7">
+      <c r="J47" s="6">
         <v>189353</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>3904588</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>2064250</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>1840338</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="7">
+      <c r="E48" s="6">
         <v>2648006</v>
       </c>
-      <c r="G48" s="7">
+      <c r="F48" s="6">
         <v>1392123</v>
       </c>
-      <c r="H48" s="7">
+      <c r="G48" s="6">
         <v>1255883</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="7">
+      <c r="H48" s="6">
         <v>1256582</v>
       </c>
-      <c r="K48" s="7">
+      <c r="I48" s="6">
         <v>672127</v>
       </c>
-      <c r="L48" s="7">
+      <c r="J48" s="6">
         <v>584455</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>1673966</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>868403</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>805563</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="7">
+      <c r="E49" s="6">
         <v>905059</v>
       </c>
-      <c r="G49" s="7">
+      <c r="F49" s="6">
         <v>471699</v>
       </c>
-      <c r="H49" s="7">
+      <c r="G49" s="6">
         <v>433360</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="7">
+      <c r="H49" s="6">
         <v>768907</v>
       </c>
-      <c r="K49" s="7">
+      <c r="I49" s="6">
         <v>396704</v>
       </c>
-      <c r="L49" s="7">
+      <c r="J49" s="6">
         <v>372203</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>707398</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>369733</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>337665</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="7">
+      <c r="E50" s="6">
         <v>170777</v>
       </c>
-      <c r="G50" s="7">
+      <c r="F50" s="6">
         <v>102163</v>
       </c>
-      <c r="H50" s="7">
+      <c r="G50" s="6">
         <v>68614</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="7">
+      <c r="H50" s="6">
         <v>536621</v>
       </c>
-      <c r="K50" s="7">
+      <c r="I50" s="6">
         <v>267570</v>
       </c>
-      <c r="L50" s="7">
+      <c r="J50" s="6">
         <v>269051</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>438243</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>214148</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>224095</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="7">
+      <c r="E51" s="6">
         <v>87603</v>
       </c>
-      <c r="G51" s="7">
+      <c r="F51" s="6">
         <v>47127</v>
       </c>
-      <c r="H51" s="7">
+      <c r="G51" s="6">
         <v>40476</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="7">
+      <c r="H51" s="6">
         <v>350640</v>
       </c>
-      <c r="K51" s="7">
+      <c r="I51" s="6">
         <v>167021</v>
       </c>
-      <c r="L51" s="7">
+      <c r="J51" s="6">
         <v>183619</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>676809</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>342613</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>334196</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="7">
+      <c r="E52" s="6">
         <v>295582</v>
       </c>
-      <c r="G52" s="7">
+      <c r="F52" s="6">
         <v>154060</v>
       </c>
-      <c r="H52" s="7">
+      <c r="G52" s="6">
         <v>141522</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="7">
+      <c r="H52" s="6">
         <v>381227</v>
       </c>
-      <c r="K52" s="7">
+      <c r="I52" s="6">
         <v>188553</v>
       </c>
-      <c r="L52" s="7">
+      <c r="J52" s="6">
         <v>192674</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>268399</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>149178</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>119221</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="7">
+      <c r="E53" s="6">
         <v>109309</v>
       </c>
-      <c r="G53" s="7">
+      <c r="F53" s="6">
         <v>68676</v>
       </c>
-      <c r="H53" s="7">
+      <c r="G53" s="6">
         <v>40633</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="7">
+      <c r="H53" s="6">
         <v>159090</v>
       </c>
-      <c r="K53" s="7">
+      <c r="I53" s="6">
         <v>80502</v>
       </c>
-      <c r="L53" s="7">
+      <c r="J53" s="6">
         <v>78588</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>232853</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>113990</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>118863</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="7">
+      <c r="E54" s="6">
         <v>70532</v>
       </c>
-      <c r="G54" s="7">
+      <c r="F54" s="6">
         <v>37253</v>
       </c>
-      <c r="H54" s="7">
+      <c r="G54" s="6">
         <v>33279</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="7">
+      <c r="H54" s="6">
         <v>162321</v>
       </c>
-      <c r="K54" s="7">
+      <c r="I54" s="6">
         <v>76737</v>
       </c>
-      <c r="L54" s="7">
+      <c r="J54" s="6">
         <v>85584</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>477736</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>254643</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>223093</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="7">
+      <c r="E55" s="6">
         <v>255557</v>
       </c>
-      <c r="G55" s="7">
+      <c r="F55" s="6">
         <v>140166</v>
       </c>
-      <c r="H55" s="7">
+      <c r="G55" s="6">
         <v>115391</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="7">
+      <c r="H55" s="6">
         <v>222179</v>
       </c>
-      <c r="K55" s="7">
+      <c r="I55" s="6">
         <v>114477</v>
       </c>
-      <c r="L55" s="7">
+      <c r="J55" s="6">
         <v>107702</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>1422461</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>714286</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>708175</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="7">
+      <c r="E56" s="6">
         <v>555172</v>
       </c>
-      <c r="G56" s="7">
+      <c r="F56" s="6">
         <v>289380</v>
       </c>
-      <c r="H56" s="7">
+      <c r="G56" s="6">
         <v>265792</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="7">
+      <c r="H56" s="6">
         <v>867289</v>
       </c>
-      <c r="K56" s="7">
+      <c r="I56" s="6">
         <v>424906</v>
       </c>
-      <c r="L56" s="7">
+      <c r="J56" s="6">
         <v>442383</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>470423</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>242340</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>228083</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="7">
+      <c r="E57" s="6">
         <v>136621</v>
       </c>
-      <c r="G57" s="7">
+      <c r="F57" s="6">
         <v>74646</v>
       </c>
-      <c r="H57" s="7">
+      <c r="G57" s="6">
         <v>61975</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="7">
+      <c r="H57" s="6">
         <v>333802</v>
       </c>
-      <c r="K57" s="7">
+      <c r="I57" s="6">
         <v>167694</v>
       </c>
-      <c r="L57" s="7">
+      <c r="J57" s="6">
         <v>166108</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>574558</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>294992</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>279566</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="7">
+      <c r="E58" s="6">
         <v>215250</v>
       </c>
-      <c r="G58" s="7">
+      <c r="F58" s="6">
         <v>115557</v>
       </c>
-      <c r="H58" s="7">
+      <c r="G58" s="6">
         <v>99693</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="7">
+      <c r="H58" s="6">
         <v>359308</v>
       </c>
-      <c r="K58" s="7">
+      <c r="I58" s="6">
         <v>179435</v>
       </c>
-      <c r="L58" s="7">
+      <c r="J58" s="6">
         <v>179873</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>872375</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>440674</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>431701</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="7">
+      <c r="E59" s="6">
         <v>341489</v>
       </c>
-      <c r="G59" s="7">
+      <c r="F59" s="6">
         <v>176118</v>
       </c>
-      <c r="H59" s="7">
+      <c r="G59" s="6">
         <v>165371</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="7">
+      <c r="H59" s="6">
         <v>530886</v>
       </c>
-      <c r="K59" s="7">
+      <c r="I59" s="6">
         <v>264556</v>
       </c>
-      <c r="L59" s="7">
+      <c r="J59" s="6">
         <v>266330</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>641480</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>330443</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>311037</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="7">
+      <c r="E60" s="6">
         <v>220710</v>
       </c>
-      <c r="G60" s="7">
+      <c r="F60" s="6">
         <v>117725</v>
       </c>
-      <c r="H60" s="7">
+      <c r="G60" s="6">
         <v>102985</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="7">
+      <c r="H60" s="6">
         <v>420770</v>
       </c>
-      <c r="K60" s="7">
+      <c r="I60" s="6">
         <v>212718</v>
       </c>
-      <c r="L60" s="7">
+      <c r="J60" s="6">
         <v>208052</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>519687</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>269675</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>250012</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="7">
+      <c r="E61" s="6">
         <v>155876</v>
       </c>
-      <c r="G61" s="7">
+      <c r="F61" s="6">
         <v>84749</v>
       </c>
-      <c r="H61" s="7">
+      <c r="G61" s="6">
         <v>71127</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="7">
+      <c r="H61" s="6">
         <v>363811</v>
       </c>
-      <c r="K61" s="7">
+      <c r="I61" s="6">
         <v>184926</v>
       </c>
-      <c r="L61" s="7">
+      <c r="J61" s="6">
         <v>178885</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>400796</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>201664</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>199132</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="7">
+      <c r="E62" s="6">
         <v>85011</v>
       </c>
-      <c r="G62" s="7">
+      <c r="F62" s="6">
         <v>44078</v>
       </c>
-      <c r="H62" s="7">
+      <c r="G62" s="6">
         <v>40933</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="7">
+      <c r="H62" s="6">
         <v>315785</v>
       </c>
-      <c r="K62" s="7">
+      <c r="I62" s="6">
         <v>157586</v>
       </c>
-      <c r="L62" s="7">
+      <c r="J62" s="6">
         <v>158199</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>267203</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>138880</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>128323</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="7">
+      <c r="E63" s="6">
         <v>54723</v>
       </c>
-      <c r="G63" s="7">
+      <c r="F63" s="6">
         <v>30990</v>
       </c>
-      <c r="H63" s="7">
+      <c r="G63" s="6">
         <v>23733</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="7">
+      <c r="H63" s="6">
         <v>212480</v>
       </c>
-      <c r="K63" s="7">
+      <c r="I63" s="6">
         <v>107890</v>
       </c>
-      <c r="L63" s="7">
+      <c r="J63" s="6">
         <v>104590</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>249308</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>124927</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <v>124381</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="7">
+      <c r="E64" s="6">
         <v>68634</v>
       </c>
-      <c r="G64" s="7">
+      <c r="F64" s="6">
         <v>36318</v>
       </c>
-      <c r="H64" s="7">
+      <c r="G64" s="6">
         <v>32316</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="7">
+      <c r="H64" s="6">
         <v>180674</v>
       </c>
-      <c r="K64" s="7">
+      <c r="I64" s="6">
         <v>88609</v>
       </c>
-      <c r="L64" s="7">
+      <c r="J64" s="6">
         <v>92065</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>463121</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>230905</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <v>232216</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="7">
+      <c r="E65" s="6">
         <v>109094</v>
       </c>
-      <c r="G65" s="7">
+      <c r="F65" s="6">
         <v>56040</v>
       </c>
-      <c r="H65" s="7">
+      <c r="G65" s="6">
         <v>53054</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="7">
+      <c r="H65" s="6">
         <v>354027</v>
       </c>
-      <c r="K65" s="7">
+      <c r="I65" s="6">
         <v>174865</v>
       </c>
-      <c r="L65" s="7">
+      <c r="J65" s="6">
         <v>179162</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>664290</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>332018</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>332272</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="7">
+      <c r="E66" s="6">
         <v>148737</v>
       </c>
-      <c r="G66" s="7">
+      <c r="F66" s="6">
         <v>78153</v>
       </c>
-      <c r="H66" s="7">
+      <c r="G66" s="6">
         <v>70584</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="7">
+      <c r="H66" s="6">
         <v>515553</v>
       </c>
-      <c r="K66" s="7">
+      <c r="I66" s="6">
         <v>253865</v>
       </c>
-      <c r="L66" s="7">
+      <c r="J66" s="6">
         <v>261688</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>336278</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>165016</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>171262</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="7">
+      <c r="E67" s="6">
         <v>82708</v>
       </c>
-      <c r="G67" s="7">
+      <c r="F67" s="6">
         <v>43169</v>
       </c>
-      <c r="H67" s="7">
+      <c r="G67" s="6">
         <v>39539</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="7">
+      <c r="H67" s="6">
         <v>253570</v>
       </c>
-      <c r="K67" s="7">
+      <c r="I67" s="6">
         <v>121847</v>
       </c>
-      <c r="L67" s="7">
+      <c r="J67" s="6">
         <v>131723</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>495649</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>253371</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>242278</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="7">
+      <c r="E68" s="6">
         <v>172210</v>
       </c>
-      <c r="G68" s="7">
+      <c r="F68" s="6">
         <v>90970</v>
       </c>
-      <c r="H68" s="7">
+      <c r="G68" s="6">
         <v>81240</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="7">
+      <c r="H68" s="6">
         <v>323439</v>
       </c>
-      <c r="K68" s="7">
+      <c r="I68" s="6">
         <v>162401</v>
       </c>
-      <c r="L68" s="7">
+      <c r="J68" s="6">
         <v>161038</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>906381</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>454837</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>451544</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="7">
+      <c r="E69" s="6">
         <v>290207</v>
       </c>
-      <c r="G69" s="7">
+      <c r="F69" s="6">
         <v>149814</v>
       </c>
-      <c r="H69" s="7">
+      <c r="G69" s="6">
         <v>140393</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="7">
+      <c r="H69" s="6">
         <v>616174</v>
       </c>
-      <c r="K69" s="7">
+      <c r="I69" s="6">
         <v>305023</v>
       </c>
-      <c r="L69" s="7">
+      <c r="J69" s="6">
         <v>311151</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>381503</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>201023</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>180480</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="7">
+      <c r="E70" s="6">
         <v>148521</v>
       </c>
-      <c r="G70" s="7">
+      <c r="F70" s="6">
         <v>80868</v>
       </c>
-      <c r="H70" s="7">
+      <c r="G70" s="6">
         <v>67653</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="7">
+      <c r="H70" s="6">
         <v>232982</v>
       </c>
-      <c r="K70" s="7">
+      <c r="I70" s="6">
         <v>120155</v>
       </c>
-      <c r="L70" s="7">
+      <c r="J70" s="6">
         <v>112827</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>267605</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>129447</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <v>138158</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="7">
+      <c r="E71" s="6">
         <v>53839</v>
       </c>
-      <c r="G71" s="7">
+      <c r="F71" s="6">
         <v>28155</v>
       </c>
-      <c r="H71" s="7">
+      <c r="G71" s="6">
         <v>25684</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="7">
+      <c r="H71" s="6">
         <v>213766</v>
       </c>
-      <c r="K71" s="7">
+      <c r="I71" s="6">
         <v>101292</v>
       </c>
-      <c r="L71" s="7">
+      <c r="J71" s="6">
         <v>112474</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>741713</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>375507</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <v>366206</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="7">
+      <c r="E72" s="6">
         <v>238318</v>
       </c>
-      <c r="G72" s="7">
+      <c r="F72" s="6">
         <v>128803</v>
       </c>
-      <c r="H72" s="7">
+      <c r="G72" s="6">
         <v>109515</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="7">
+      <c r="H72" s="6">
         <v>503395</v>
       </c>
-      <c r="K72" s="7">
+      <c r="I72" s="6">
         <v>246704</v>
       </c>
-      <c r="L72" s="7">
+      <c r="J72" s="6">
         <v>256691</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>319987</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>170643</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <v>149344</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="7">
+      <c r="E73" s="6">
         <v>137332</v>
       </c>
-      <c r="G73" s="7">
+      <c r="F73" s="6">
         <v>79098</v>
       </c>
-      <c r="H73" s="7">
+      <c r="G73" s="6">
         <v>58234</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="7">
+      <c r="H73" s="6">
         <v>182655</v>
       </c>
-      <c r="K73" s="7">
+      <c r="I73" s="6">
         <v>91545</v>
       </c>
-      <c r="L73" s="7">
+      <c r="J73" s="6">
         <v>91110</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>599166</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>305071</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>294095</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="7">
+      <c r="E74" s="6">
         <v>175446</v>
       </c>
-      <c r="G74" s="7">
+      <c r="F74" s="6">
         <v>93001</v>
       </c>
-      <c r="H74" s="7">
+      <c r="G74" s="6">
         <v>82445</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="7">
+      <c r="H74" s="6">
         <v>423720</v>
       </c>
-      <c r="K74" s="7">
+      <c r="I74" s="6">
         <v>212070</v>
       </c>
-      <c r="L74" s="7">
+      <c r="J74" s="6">
         <v>211650</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>719008</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>354636</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>364372</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="7">
+      <c r="E75" s="6">
         <v>171570</v>
       </c>
-      <c r="G75" s="7">
+      <c r="F75" s="6">
         <v>92190</v>
       </c>
-      <c r="H75" s="7">
+      <c r="G75" s="6">
         <v>79380</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="7">
+      <c r="H75" s="6">
         <v>547438</v>
       </c>
-      <c r="K75" s="7">
+      <c r="I75" s="6">
         <v>262446</v>
       </c>
-      <c r="L75" s="7">
+      <c r="J75" s="6">
         <v>284992</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>164591</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>82759</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>81832</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="7">
+      <c r="E76" s="6">
         <v>35332</v>
       </c>
-      <c r="G76" s="7">
+      <c r="F76" s="6">
         <v>20545</v>
       </c>
-      <c r="H76" s="7">
+      <c r="G76" s="6">
         <v>14787</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="7">
+      <c r="H76" s="6">
         <v>129259</v>
       </c>
-      <c r="K76" s="7">
+      <c r="I76" s="6">
         <v>62214</v>
       </c>
-      <c r="L76" s="7">
+      <c r="J76" s="6">
         <v>67045</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>597277</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>312415</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <v>284862</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="7">
+      <c r="E77" s="6">
         <v>264119</v>
       </c>
-      <c r="G77" s="7">
+      <c r="F77" s="6">
         <v>139746</v>
       </c>
-      <c r="H77" s="7">
+      <c r="G77" s="6">
         <v>124373</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="7">
+      <c r="H77" s="6">
         <v>333158</v>
       </c>
-      <c r="K77" s="7">
+      <c r="I77" s="6">
         <v>172669</v>
       </c>
-      <c r="L77" s="7">
+      <c r="J77" s="6">
         <v>160489</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>229679</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>116149</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>113530</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="7">
+      <c r="E78" s="6">
         <v>86817</v>
       </c>
-      <c r="G78" s="7">
+      <c r="F78" s="6">
         <v>45264</v>
       </c>
-      <c r="H78" s="7">
+      <c r="G78" s="6">
         <v>41553</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="7">
+      <c r="H78" s="6">
         <v>142862</v>
       </c>
-      <c r="K78" s="7">
+      <c r="I78" s="6">
         <v>70885</v>
       </c>
-      <c r="L78" s="7">
+      <c r="J78" s="6">
         <v>71977</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>386314</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>203229</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>183085</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="7">
+      <c r="E79" s="6">
         <v>115830</v>
       </c>
-      <c r="G79" s="7">
+      <c r="F79" s="6">
         <v>63342</v>
       </c>
-      <c r="H79" s="7">
+      <c r="G79" s="6">
         <v>52488</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="7">
+      <c r="H79" s="6">
         <v>270484</v>
       </c>
-      <c r="K79" s="7">
+      <c r="I79" s="6">
         <v>139887</v>
       </c>
-      <c r="L79" s="7">
+      <c r="J79" s="6">
         <v>130597</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>500371</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>248490</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <v>251881</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="7">
+      <c r="E80" s="6">
         <v>108543</v>
       </c>
-      <c r="G80" s="7">
+      <c r="F80" s="6">
         <v>57292</v>
       </c>
-      <c r="H80" s="7">
+      <c r="G80" s="6">
         <v>51251</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="7">
+      <c r="H80" s="6">
         <v>391828</v>
       </c>
-      <c r="K80" s="7">
+      <c r="I80" s="6">
         <v>191198</v>
       </c>
-      <c r="L80" s="7">
+      <c r="J80" s="6">
         <v>200630</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>836156</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>426668</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="6">
         <v>409488</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="7">
+      <c r="E81" s="6">
         <v>263365</v>
       </c>
-      <c r="G81" s="7">
+      <c r="F81" s="6">
         <v>144608</v>
       </c>
-      <c r="H81" s="7">
+      <c r="G81" s="6">
         <v>118757</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="7">
+      <c r="H81" s="6">
         <v>572791</v>
       </c>
-      <c r="K81" s="7">
+      <c r="I81" s="6">
         <v>282060</v>
       </c>
-      <c r="L81" s="7">
+      <c r="J81" s="6">
         <v>290731</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="23.25">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="23.25">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
